--- a/public/file/template-excel-payroll/template-import-payroll_V20.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB7707-2086-47A3-A2E5-64124EDB31FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C80CF9-59C2-4307-953D-81090BEEC06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,59 +621,6 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>16</v>
-      </c>
-      <c r="Q3">
-        <v>17</v>
-      </c>
-    </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" s="11"/>
     </row>

--- a/public/file/template-excel-payroll/template-import-payroll_V20.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C80CF9-59C2-4307-953D-81090BEEC06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB5D38-C5C1-45C1-AA8C-259DE1A9458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>BPJS KETENAGAKERJAAN (JHT+JKK+JKM+JP)</t>
   </si>
   <si>
-    <t>RAPEL/KOREKSI +</t>
-  </si>
-  <si>
     <t>POT. KELEBIHAN GAJI/ KOREKSI -</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>POT. ARKANA</t>
+  </si>
+  <si>
+    <t>OVERTIME</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>7</v>
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
